--- a/data/FAQ_JOHN_REVIEW.xlsx
+++ b/data/FAQ_JOHN_REVIEW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jshen/workspace/wits-faq-bot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD916430-AE70-2E43-BEBF-7B4326E926A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC007C-61CD-8D42-AED8-2A4112A91ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="230323" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="735">
   <si>
     <t>Finance</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3076,6 +3076,21 @@
 F: 中南美、非洲諸國、中東、印度、泰國、亞洲其他地區，15日(含)以內：30美金，16日(含)以內:15美金，31日(含)以上：15美金
 G: 大陸地區，15日(含)以內：240人民幣，16日(含)以內:180人民幣，31日(含)以上：180人民幣
 H: 國內出差，500新台幣/日</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>緯創軟體董事長是誰？</t>
+  </si>
+  <si>
+    <t>蕭清志董事長暨執行長為美國普渡大學電腦博士，擁有豐富完整的軟體產業資歷，曾任美國AT&amp;T研究員、知名財經資訊系統公司Dow Jones Telerate Systems總經理，2004年加入緯創軟體，訂出緯創軟體專攻資訊委外服務的營運策略，並同步帶進全新經營管理模式，帶領緯創軟體年營收持續成長，十年內公司上市，成為國際級IT軟體外包服務領導廠商。</t>
+  </si>
+  <si>
+    <t>漂亮寶貝是誰</t>
+  </si>
+  <si>
+    <t>薛宇絜</t>
   </si>
 </sst>
 </file>
@@ -3367,7 +3382,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>2823704</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>748134</xdr:rowOff>
+      <xdr:rowOff>646534</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3722,10 +3737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="143" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
@@ -3797,7 +3812,7 @@
       </c>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="85">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="68">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -3891,7 +3906,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="68">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -4198,7 +4213,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="20" spans="1:9" s="6" customFormat="1" ht="38">
       <c r="A20" s="11" t="s">
         <v>0</v>
       </c>
@@ -4244,7 +4259,7 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="22" spans="1:9" s="6" customFormat="1" ht="38">
       <c r="A22" s="11" t="s">
         <v>0</v>
       </c>
@@ -4831,7 +4846,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="1:9" ht="51">
+    <row r="47" spans="1:9" ht="34">
       <c r="A47" s="11" t="s">
         <v>57</v>
       </c>
@@ -5117,7 +5132,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="1:9" ht="68">
+    <row r="59" spans="1:9" ht="51">
       <c r="A59" s="11" t="s">
         <v>100</v>
       </c>
@@ -5951,7 +5966,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
     </row>
-    <row r="95" spans="1:9" ht="51">
+    <row r="95" spans="1:9" ht="34">
       <c r="A95" s="11" t="s">
         <v>100</v>
       </c>
@@ -6300,7 +6315,7 @@
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
     </row>
-    <row r="110" spans="1:9" ht="85">
+    <row r="110" spans="1:9" ht="68">
       <c r="A110" s="11" t="s">
         <v>100</v>
       </c>
@@ -6346,7 +6361,7 @@
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
     </row>
-    <row r="112" spans="1:9" ht="68">
+    <row r="112" spans="1:9" ht="51">
       <c r="A112" s="11" t="s">
         <v>100</v>
       </c>
@@ -6369,7 +6384,7 @@
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
     </row>
-    <row r="113" spans="1:9" ht="102">
+    <row r="113" spans="1:9" ht="85">
       <c r="A113" s="11" t="s">
         <v>100</v>
       </c>
@@ -6415,7 +6430,7 @@
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
     </row>
-    <row r="115" spans="1:9" ht="68">
+    <row r="115" spans="1:9" ht="57">
       <c r="A115" s="11" t="s">
         <v>100</v>
       </c>
@@ -6580,7 +6595,7 @@
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
     </row>
-    <row r="122" spans="1:9" ht="51">
+    <row r="122" spans="1:9" ht="34">
       <c r="A122" s="11" t="s">
         <v>100</v>
       </c>
@@ -6879,7 +6894,7 @@
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
     </row>
-    <row r="135" spans="1:9" ht="68">
+    <row r="135" spans="1:9" ht="51">
       <c r="A135" s="11" t="s">
         <v>100</v>
       </c>
@@ -7368,7 +7383,7 @@
       <c r="H155" s="21"/>
       <c r="I155" s="21"/>
     </row>
-    <row r="156" spans="1:9" ht="51">
+    <row r="156" spans="1:9" ht="34">
       <c r="A156" s="11" t="s">
         <v>100</v>
       </c>
@@ -7437,7 +7452,7 @@
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
     </row>
-    <row r="159" spans="1:9" ht="68">
+    <row r="159" spans="1:9" ht="51">
       <c r="A159" s="11" t="s">
         <v>100</v>
       </c>
@@ -7460,7 +7475,7 @@
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
     </row>
-    <row r="160" spans="1:9" ht="51">
+    <row r="160" spans="1:9" ht="34">
       <c r="A160" s="11" t="s">
         <v>100</v>
       </c>
@@ -7483,7 +7498,7 @@
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
     </row>
-    <row r="161" spans="1:9" ht="51">
+    <row r="161" spans="1:9" ht="34">
       <c r="A161" s="11" t="s">
         <v>100</v>
       </c>
@@ -8001,7 +8016,7 @@
       <c r="H182" s="21"/>
       <c r="I182" s="21"/>
     </row>
-    <row r="183" spans="1:9" ht="51">
+    <row r="183" spans="1:9" ht="34">
       <c r="A183" s="11" t="s">
         <v>100</v>
       </c>
@@ -8070,7 +8085,7 @@
       <c r="H185" s="21"/>
       <c r="I185" s="21"/>
     </row>
-    <row r="186" spans="1:9" ht="102">
+    <row r="186" spans="1:9" ht="85">
       <c r="A186" s="11" t="s">
         <v>100</v>
       </c>
@@ -8210,7 +8225,7 @@
       <c r="H191" s="21"/>
       <c r="I191" s="21"/>
     </row>
-    <row r="192" spans="1:9" ht="51">
+    <row r="192" spans="1:9" ht="34">
       <c r="A192" s="11" t="s">
         <v>100</v>
       </c>
@@ -8256,7 +8271,7 @@
       <c r="H193" s="21"/>
       <c r="I193" s="21"/>
     </row>
-    <row r="194" spans="1:9" ht="51">
+    <row r="194" spans="1:9" ht="34">
       <c r="A194" s="11" t="s">
         <v>100</v>
       </c>
@@ -8740,6 +8755,34 @@
       <c r="G214" s="21"/>
       <c r="H214" s="21"/>
       <c r="I214" s="21"/>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B215" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B216" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>734</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/FAQ_JOHN_REVIEW.xlsx
+++ b/data/FAQ_JOHN_REVIEW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jshen/workspace/wits-faq-bot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC007C-61CD-8D42-AED8-2A4112A91ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1191BAAA-79FD-D242-B159-506D6CBFF325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="230323" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="740">
   <si>
     <t>Finance</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3078,9 +3078,6 @@
 H: 國內出差，500新台幣/日</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>緯創軟體董事長是誰？</t>
   </si>
   <si>
@@ -3091,6 +3088,24 @@
   </si>
   <si>
     <t>薛宇絜</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>緯創軟體股票代碼</t>
+  </si>
+  <si>
+    <t>新北市汐止區新台五路一段93號32樓 22175 </t>
+  </si>
+  <si>
+    <t>緯創軟體公司地址</t>
+  </si>
+  <si>
+    <t>緯創軟體公司簡介</t>
+  </si>
+  <si>
+    <t>緯創軟體是亞太地區專業的資訊服務領導廠商，全球總共有台北、 新竹、台中、武漢、北京、大連、上海、廣州、深圳、珠海、香港、東京、大阪、和美國加州等營業據點，客戶包括世界500強企業以及國內外優質企業，是顧客長期而且值得信賴的合作夥伴。 wistronits.com/tw/about/wistronits/</t>
   </si>
 </sst>
 </file>
@@ -3737,11 +3752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="143" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D214" sqref="D214"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -8756,32 +8771,74 @@
       <c r="H214" s="21"/>
       <c r="I214" s="21"/>
     </row>
-    <row r="215" spans="1:9">
-      <c r="A215" s="2" t="s">
+    <row r="215" spans="1:9" ht="68">
+      <c r="A215" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="B215" s="23" t="s">
+      <c r="D215" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="D215" s="6" t="s">
+      <c r="C216" s="3" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="216" spans="1:9">
-      <c r="A216" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="B216" s="23" t="s">
+      <c r="D216" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D216" s="6" t="s">
+      <c r="C217" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D217" s="3">
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="3" t="s">
         <v>734</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>739</v>
       </c>
     </row>
   </sheetData>

--- a/data/FAQ_JOHN_REVIEW.xlsx
+++ b/data/FAQ_JOHN_REVIEW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jshen/workspace/wits-faq-bot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1191BAAA-79FD-D242-B159-506D6CBFF325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FE3E18-E312-424E-B077-B20DFADFFE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3081,9 +3081,6 @@
     <t>緯創軟體董事長是誰？</t>
   </si>
   <si>
-    <t>蕭清志董事長暨執行長為美國普渡大學電腦博士，擁有豐富完整的軟體產業資歷，曾任美國AT&amp;T研究員、知名財經資訊系統公司Dow Jones Telerate Systems總經理，2004年加入緯創軟體，訂出緯創軟體專攻資訊委外服務的營運策略，並同步帶進全新經營管理模式，帶領緯創軟體年營收持續成長，十年內公司上市，成為國際級IT軟體外包服務領導廠商。</t>
-  </si>
-  <si>
     <t>漂亮寶貝是誰</t>
   </si>
   <si>
@@ -3106,6 +3103,9 @@
   </si>
   <si>
     <t>緯創軟體是亞太地區專業的資訊服務領導廠商，全球總共有台北、 新竹、台中、武漢、北京、大連、上海、廣州、深圳、珠海、香港、東京、大阪、和美國加州等營業據點，客戶包括世界500強企業以及國內外優質企業，是顧客長期而且值得信賴的合作夥伴。 wistronits.com/tw/about/wistronits/</t>
+  </si>
+  <si>
+    <t>蕭清志(Ching Hsiao)董事長暨執行長為美國普渡大學電腦博士，擁有豐富完整的軟體產業資歷，曾任美國AT&amp;T研究員、知名財經資訊系統公司Dow Jones Telerate Systems總經理，2004年加入緯創軟體，訂出緯創軟體專攻資訊委外服務的營運策略，並同步帶進全新經營管理模式，帶領緯創軟體年營收持續成長，十年內公司上市，成為國際級IT軟體外包服務領導廠商。</t>
   </si>
 </sst>
 </file>
@@ -3755,8 +3755,8 @@
   <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D224" sqref="D224"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -8771,9 +8771,9 @@
       <c r="H214" s="21"/>
       <c r="I214" s="21"/>
     </row>
-    <row r="215" spans="1:9" ht="68">
+    <row r="215" spans="1:9" ht="85">
       <c r="A215" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>638</v>
@@ -8782,32 +8782,32 @@
         <v>730</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>638</v>
       </c>
       <c r="C216" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>732</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>638</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D217" s="3">
         <v>4953</v>
@@ -8815,30 +8815,30 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>638</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>638</v>
       </c>
       <c r="C219" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D219" s="6" t="s">
         <v>738</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>739</v>
       </c>
     </row>
   </sheetData>
